--- a/biology/Botanique/Schefflera_mannii/Schefflera_mannii.xlsx
+++ b/biology/Botanique/Schefflera_mannii/Schefflera_mannii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Schefflera mannii (Hook.f.) Harms est une espèce de plantes de la famille des Araliaceae et du genre Schefflera, endémique de la ligne montagneuse du Cameroun.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique mannii rend hommage au botaniste allemand Gustav Mann[4], qui  collecta plusieurs spécimens[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique mannii rend hommage au botaniste allemand Gustav Mann, qui  collecta plusieurs spécimens.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste ou arbre pouvant 20 m de hauteur[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste ou arbre pouvant 20 m de hauteur.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Subendémique, commune, mais jugée vulnérable, l'espèce a été observée principalement au Cameroun (dont mont Cameroun, mont Koupé, mont Manengouba, mont Oku, monts Bamboutos, réserve forestière de Bafut Ngemba), également en Guinée équatoriale sur l'île d'Annobón et Bioko, au sud-est du Nigeria et à Sao Tomé-et-Principe sur l'île de São Tomé[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Subendémique, commune, mais jugée vulnérable, l'espèce a été observée principalement au Cameroun (dont mont Cameroun, mont Koupé, mont Manengouba, mont Oku, monts Bamboutos, réserve forestière de Bafut Ngemba), également en Guinée équatoriale sur l'île d'Annobón et Bioko, au sud-est du Nigeria et à Sao Tomé-et-Principe sur l'île de São Tomé.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (22 janvier 2018)[8] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (22 janvier 2018) :
 variété Schefflera mannii var. lancifolia Harms</t>
         </is>
       </c>
